--- a/src/test/java/excelFiles/results.xlsx
+++ b/src/test/java/excelFiles/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="37">
   <si>
     <t>create-a-country;country-creating</t>
   </si>
@@ -88,6 +88,48 @@
   </si>
   <si>
     <t>src/test/java/featureFiles/city.feature:17</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/citizenship.feature:18</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/citizenship.feature:19</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/country.feature:19</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/nationalities.feature:18</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/subjectCategories.feature:19</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/subjectCategories.feature:21</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/fees.feature:21</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:33</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:32</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:25</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:26</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:27</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:28</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:29</t>
   </si>
 </sst>
 </file>
@@ -414,7 +456,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -422,7 +464,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -430,10 +472,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">

--- a/src/test/java/excelFiles/results.xlsx
+++ b/src/test/java/excelFiles/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="41">
   <si>
     <t>create-a-country;country-creating</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:29</t>
+  </si>
+  <si>
+    <t>src/test/java/featureFiles/01setup/parameters/citizenship.feature:19</t>
+  </si>
+  <si>
+    <t>src/test/java/featureFiles/01setup/parameters/country.feature:19</t>
+  </si>
+  <si>
+    <t>src/test/java/featureFiles/01setup/parameters/fees.feature:21</t>
+  </si>
+  <si>
+    <t>src/test/java/featureFiles/01setup/parameters/nationalities.feature:18</t>
   </si>
 </sst>
 </file>
@@ -456,7 +468,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -464,15 +476,15 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -480,10 +492,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/excelFiles/results.xlsx
+++ b/src/test/java/excelFiles/results.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\projectJunitMaven\src\test\java\excelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D88ED64-BEFA-44F3-962F-776C16C9240A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,135 +26,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="41">
-  <si>
-    <t>create-a-country;country-creating</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/createCity.feature:2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/06Budget/incomePlans.feature:29</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>src/test/java/featureFiles/createCity.feature:3</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/createCity2.feature:2</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/createCity2.feature:2</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/createCity2.feature:3</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/createCity2.feature:3</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/citizenship.feature:3</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/citizenship.feature:16</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/citizenship.feature:16</t>
-  </si>
-  <si>
-    <t>UNDEFINED</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/city.feature:17</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/city.feature:18</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/city.feature:19</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/city.feature:18</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/city.feature:19</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/city.feature:20</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/city.feature:17</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/citizenship.feature:18</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/citizenship.feature:19</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/country.feature:19</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/nationalities.feature:18</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/subjectCategories.feature:19</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/subjectCategories.feature:21</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/fees.feature:21</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:33</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:32</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:25</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:26</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:27</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:28</t>
-  </si>
-  <si>
-    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/java/featureFiles/06Budget/incomePlans.feature:29</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/01setup/parameters/citizenship.feature:19</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/01setup/parameters/country.feature:19</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/01setup/parameters/fees.feature:21</t>
-  </si>
-  <si>
-    <t>src/test/java/featureFiles/01setup/parameters/nationalities.feature:18</t>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/01setup/parameters/subjectCategories.feature:19</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/01setup/parameters/fees.feature:21</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/01setup/parameters/nationalities.feature:18</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/01setup/parameters/citizenship.feature:20</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/06Budget/incomePlans.feature:27</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/06Budget/incomePlans.feature:28</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/01setup/parameters/citizenship.feature:19</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/01setup/parameters/country.feature:19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -459,43 +373,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/excelFiles/results.xlsx
+++ b/src/test/java/excelFiles/results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
   <si>
     <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/06Budget/incomePlans.feature:29</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/01setup/parameters/country.feature:19</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">

--- a/src/test/java/excelFiles/results.xlsx
+++ b/src/test/java/excelFiles/results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="18">
   <si>
     <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/06Budget/incomePlans.feature:29</t>
   </si>
@@ -59,6 +59,27 @@
   </si>
   <si>
     <t>FAILED</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/etsy/etsyAddCard.feature:14</t>
+  </si>
+  <si>
+    <t>UNDEFINED</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/etsy/etsyAddCard.feature:15</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/etsy/etsyAddCard.feature:16</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/etsy/etsyAddCard.feature:17</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/etsy/etsyAddCard.feature:18</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/etsy/etsyAddCard.feature:19</t>
   </si>
 </sst>
 </file>
@@ -377,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,7 +406,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -393,17 +414,41 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/test/java/excelFiles/results.xlsx
+++ b/src/test/java/excelFiles/results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="20">
   <si>
     <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/06Budget/incomePlans.feature:29</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/etsy/etsyAddCard.feature:19</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/etsy/etsyCheckAmount.feature:14</t>
+  </si>
+  <si>
+    <t>C:/Users/JuNiOr/IdeaProjects/projectJunitMaven/src/test/resources/etsy/etsyCheckAmount.feature:13</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
